--- a/Prototipo_EngSoft/planilhas/Tabela_Veiculos_Registrados.xlsx
+++ b/Prototipo_EngSoft/planilhas/Tabela_Veiculos_Registrados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BACKUPS_D\Offline_D\Repos_Offline\EngSoftProt-tipo\Prototipo_EngSoft\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizj.LAPTOP-S284PDKK\Desktop\FATEC - MATERIAIS\2º Semestre\ENGENHARIA DE SOFTWARE\repo\Prototipo_EngSoft\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C8D6DE-52C3-4E44-83A4-0A08C6D8EAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2580" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="3552" yWindow="1092" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Nº</t>
   </si>
@@ -47,12 +39,6 @@
     <t>CNH</t>
   </si>
   <si>
-    <t>Contato</t>
-  </si>
-  <si>
-    <t>Peugeot 206 GTI</t>
-  </si>
-  <si>
     <t>1998 Lada Samara 21099</t>
   </si>
   <si>
@@ -89,9 +75,6 @@
     <t>Gideon Jura</t>
   </si>
   <si>
-    <t>Volume Máximo (KG)</t>
-  </si>
-  <si>
     <t>345.223.123.1</t>
   </si>
   <si>
@@ -114,12 +97,24 @@
   </si>
   <si>
     <t>Elspeth Tirel</t>
+  </si>
+  <si>
+    <t>QTD eixos</t>
+  </si>
+  <si>
+    <t>nenhum</t>
+  </si>
+  <si>
+    <t>SCANIA R450</t>
+  </si>
+  <si>
+    <t>Volume Máximo (m³)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,24 +468,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,153 +496,153 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2522</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1311</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>15987768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2521</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>855</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>15199816</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2520</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>2707</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>15548936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2519</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>1250</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>15905081</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2518</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>1565</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>15621900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2517</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>1911</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>15612216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2516</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>1210</v>
       </c>
       <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>25</v>
-      </c>
-      <c r="F8">
-        <v>15738207</v>
       </c>
     </row>
   </sheetData>

--- a/Prototipo_EngSoft/planilhas/Tabela_Veiculos_Registrados.xlsx
+++ b/Prototipo_EngSoft/planilhas/Tabela_Veiculos_Registrados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizj.LAPTOP-S284PDKK\Desktop\FATEC - MATERIAIS\2º Semestre\ENGENHARIA DE SOFTWARE\repo\Prototipo_EngSoft\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C8D6DE-52C3-4E44-83A4-0A08C6D8EAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D350B0-9D73-4CCF-A175-2F8270EDCFBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="1092" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4608" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Nº</t>
   </si>
@@ -33,48 +33,9 @@
     <t>Veiculo</t>
   </si>
   <si>
-    <t>Motorista</t>
-  </si>
-  <si>
     <t>CNH</t>
   </si>
   <si>
-    <t>1998 Lada Samara 21099</t>
-  </si>
-  <si>
-    <t>2016 Alfa Romeo Giulia QV</t>
-  </si>
-  <si>
-    <t>1990 Ford Mustang GT</t>
-  </si>
-  <si>
-    <t>Porsche GT2 RS '18</t>
-  </si>
-  <si>
-    <t>Toyota GT86 Rev.2</t>
-  </si>
-  <si>
-    <t>1997 Honda Civic Type-R</t>
-  </si>
-  <si>
-    <t>Jace Belleren</t>
-  </si>
-  <si>
-    <t>Lilliana Vess</t>
-  </si>
-  <si>
-    <t>Ugin da Silva</t>
-  </si>
-  <si>
-    <t>Ajani Costa</t>
-  </si>
-  <si>
-    <t>Garruk dos Santos</t>
-  </si>
-  <si>
-    <t>Gideon Jura</t>
-  </si>
-  <si>
     <t>345.223.123.1</t>
   </si>
   <si>
@@ -96,26 +57,62 @@
     <t>345.223.123.7</t>
   </si>
   <si>
-    <t>Elspeth Tirel</t>
-  </si>
-  <si>
     <t>QTD eixos</t>
   </si>
   <si>
-    <t>nenhum</t>
-  </si>
-  <si>
-    <t>SCANIA R450</t>
-  </si>
-  <si>
     <t>Volume Máximo (m³)</t>
+  </si>
+  <si>
+    <t>Motorista Designado</t>
+  </si>
+  <si>
+    <t>Volvo FH 540</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Scania R 450</t>
+  </si>
+  <si>
+    <t>Bino</t>
+  </si>
+  <si>
+    <t>Volvo FH 460</t>
+  </si>
+  <si>
+    <t>Teixeirinha</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz Actros 2651</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>DAF XF 105 510</t>
+  </si>
+  <si>
+    <t>Romeu</t>
+  </si>
+  <si>
+    <t>Scania R 500</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz Actros 2546</t>
+  </si>
+  <si>
+    <t>Jorge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,7 +123,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,9 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +477,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,156 +498,156 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>2522</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2521</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2520</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2519</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2518</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2517</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2522</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D7" s="2">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2516</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1311</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2521</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>855</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2520</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>2707</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2519</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1250</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2518</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>1565</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2517</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>1911</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2516</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>1210</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
